--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-encounter.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-encounter.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="482">
   <si>
     <t>Property</t>
   </si>
@@ -265,10 +265,6 @@
     <t>An interaction between a patient and healthcare provider(s) for the purpose of providing healthcare service(s) or assessing the health status of a patient.
 医療サービスの提供または患者の健康状態の評価を目的とした、患者と医療提供者との間の相互作用。Encounterと表現される。
 【JP Core仕様】外来受診、救急受診、入院、退院、対面診察、電話診察、など。</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2161,13 +2157,13 @@
         <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>80</v>
@@ -2178,7 +2174,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2189,28 +2185,28 @@
         <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2260,13 +2256,13 @@
         <v>80</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>80</v>
@@ -2289,7 +2285,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2300,25 +2296,25 @@
         <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2369,19 +2365,19 @@
         <v>80</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>80</v>
@@ -2398,7 +2394,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2409,28 +2405,28 @@
         <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2480,19 +2476,19 @@
         <v>80</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>80</v>
@@ -2509,7 +2505,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2520,7 +2516,7 @@
         <v>78</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>80</v>
@@ -2532,16 +2528,16 @@
         <v>80</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2567,43 +2563,43 @@
         <v>80</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>80</v>
@@ -2620,18 +2616,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>80</v>
@@ -2643,16 +2639,16 @@
         <v>80</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2702,25 +2698,25 @@
         <v>80</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>80</v>
@@ -2731,11 +2727,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2754,16 +2750,16 @@
         <v>80</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2813,7 +2809,7 @@
         <v>80</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>78</v>
@@ -2831,7 +2827,7 @@
         <v>80</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>80</v>
@@ -2842,7 +2838,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2865,13 +2861,13 @@
         <v>80</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2910,17 +2906,17 @@
         <v>80</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>78</v>
@@ -2932,7 +2928,7 @@
         <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>80</v>
@@ -2949,10 +2945,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>80</v>
@@ -2962,7 +2958,7 @@
         <v>78</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>80</v>
@@ -2974,13 +2970,13 @@
         <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>141</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3031,7 +3027,7 @@
         <v>80</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>78</v>
@@ -3040,10 +3036,10 @@
         <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>80</v>
@@ -3060,11 +3056,11 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3077,25 +3073,25 @@
         <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>80</v>
@@ -3144,7 +3140,7 @@
         <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>78</v>
@@ -3156,13 +3152,13 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>80</v>
@@ -3173,7 +3169,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3193,16 +3189,16 @@
         <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3253,7 +3249,7 @@
         <v>80</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>78</v>
@@ -3265,24 +3261,24 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>157</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3290,31 +3286,31 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="I13" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3340,60 +3336,60 @@
         <v>80</v>
       </c>
       <c r="W13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="X13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="X13" t="s" s="2">
+      <c r="Y13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
+      <c r="AK13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3416,16 +3412,16 @@
         <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3475,7 +3471,7 @@
         <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
@@ -3487,13 +3483,13 @@
         <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>80</v>
@@ -3504,7 +3500,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3515,7 +3511,7 @@
         <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>80</v>
@@ -3527,13 +3523,13 @@
         <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3584,13 +3580,13 @@
         <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>80</v>
@@ -3602,7 +3598,7 @@
         <v>80</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>80</v>
@@ -3613,11 +3609,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3636,16 +3632,16 @@
         <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>182</v>
-      </c>
       <c r="M16" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3695,7 +3691,7 @@
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -3707,13 +3703,13 @@
         <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>80</v>
@@ -3724,11 +3720,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3741,25 +3737,25 @@
         <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="M17" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>80</v>
@@ -3808,7 +3804,7 @@
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -3820,13 +3816,13 @@
         <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>80</v>
@@ -3837,7 +3833,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3845,10 +3841,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>80</v>
@@ -3860,16 +3856,16 @@
         <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3895,14 +3891,14 @@
         <v>80</v>
       </c>
       <c r="W18" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="X18" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="X18" t="s" s="2">
+      <c r="Y18" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="Y18" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="Z18" t="s" s="2">
         <v>80</v>
       </c>
@@ -3919,25 +3915,25 @@
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>80</v>
@@ -3948,7 +3944,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3956,10 +3952,10 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>80</v>
@@ -3971,16 +3967,16 @@
         <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4030,25 +4026,25 @@
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>80</v>
@@ -4059,7 +4055,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4067,31 +4063,31 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F20" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J20" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4117,60 +4113,60 @@
         <v>80</v>
       </c>
       <c r="W20" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="X20" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="X20" t="s" s="2">
+      <c r="Y20" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4193,13 +4189,13 @@
         <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4250,7 +4246,7 @@
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4262,13 +4258,13 @@
         <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>80</v>
@@ -4279,7 +4275,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4290,7 +4286,7 @@
         <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>80</v>
@@ -4302,13 +4298,13 @@
         <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4359,13 +4355,13 @@
         <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>80</v>
@@ -4377,7 +4373,7 @@
         <v>80</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>80</v>
@@ -4388,11 +4384,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4411,16 +4407,16 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>182</v>
-      </c>
       <c r="M23" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4470,7 +4466,7 @@
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4482,13 +4478,13 @@
         <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>80</v>
@@ -4499,11 +4495,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4516,25 +4512,25 @@
         <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="M24" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>80</v>
@@ -4583,7 +4579,7 @@
         <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4595,13 +4591,13 @@
         <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>80</v>
@@ -4612,7 +4608,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4620,10 +4616,10 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>80</v>
@@ -4635,16 +4631,16 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4670,14 +4666,14 @@
         <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="X25" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="X25" t="s" s="2">
+      <c r="Y25" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y25" t="s" s="2">
-        <v>204</v>
-      </c>
       <c r="Z25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4694,25 +4690,25 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>80</v>
@@ -4723,7 +4719,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4731,10 +4727,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>80</v>
@@ -4746,16 +4742,16 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>220</v>
-      </c>
       <c r="M26" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4805,25 +4801,25 @@
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>80</v>
@@ -4834,7 +4830,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4854,19 +4850,19 @@
         <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4892,14 +4888,14 @@
         <v>80</v>
       </c>
       <c r="W27" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="X27" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="X27" t="s" s="2">
+      <c r="Y27" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="Y27" t="s" s="2">
-        <v>228</v>
-      </c>
       <c r="Z27" t="s" s="2">
         <v>80</v>
       </c>
@@ -4916,7 +4912,7 @@
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4928,24 +4924,24 @@
         <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>231</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4956,28 +4952,28 @@
         <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5003,60 +4999,60 @@
         <v>80</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="Y28" t="s" s="2">
+      <c r="Z28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>238</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5067,7 +5063,7 @@
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>80</v>
@@ -5079,16 +5075,16 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>241</v>
-      </c>
       <c r="M29" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5114,92 +5110,92 @@
         <v>80</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>246</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J30" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5249,36 +5245,36 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>256</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5298,19 +5294,19 @@
         <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5360,7 +5356,7 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5372,28 +5368,28 @@
         <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AK31" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>264</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5412,16 +5408,16 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>269</v>
-      </c>
       <c r="M32" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5471,7 +5467,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5483,13 +5479,13 @@
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>80</v>
@@ -5500,7 +5496,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5520,16 +5516,16 @@
         <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5580,7 +5576,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5592,24 +5588,24 @@
         <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>277</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5620,7 +5616,7 @@
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>80</v>
@@ -5632,13 +5628,13 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5689,13 +5685,13 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>80</v>
@@ -5707,7 +5703,7 @@
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>80</v>
@@ -5718,11 +5714,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5741,16 +5737,16 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>182</v>
-      </c>
       <c r="M35" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5800,7 +5796,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5812,13 +5808,13 @@
         <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>80</v>
@@ -5829,11 +5825,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5846,25 +5842,25 @@
         <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="M36" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>80</v>
@@ -5913,7 +5909,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5925,13 +5921,13 @@
         <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>80</v>
@@ -5942,7 +5938,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5962,19 +5958,19 @@
         <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6000,14 +5996,14 @@
         <v>80</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>286</v>
-      </c>
       <c r="Z37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6024,7 +6020,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6036,24 +6032,24 @@
         <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>289</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6064,7 +6060,7 @@
         <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>80</v>
@@ -6076,13 +6072,13 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6133,36 +6129,36 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6173,25 +6169,25 @@
         <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J39" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6242,36 +6238,36 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>302</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6291,19 +6287,19 @@
         <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>306</v>
-      </c>
       <c r="M40" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6353,7 +6349,7 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6365,24 +6361,24 @@
         <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>308</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6393,7 +6389,7 @@
         <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>80</v>
@@ -6405,16 +6401,16 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6464,36 +6460,36 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>316</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6504,7 +6500,7 @@
         <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>80</v>
@@ -6516,16 +6512,16 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6575,40 +6571,40 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>323</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6624,19 +6620,19 @@
         <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6662,14 +6658,14 @@
         <v>80</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="Y43" t="s" s="2">
-        <v>330</v>
-      </c>
       <c r="Z43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6686,7 +6682,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6698,28 +6694,28 @@
         <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AL43" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>334</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6735,19 +6731,19 @@
         <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>338</v>
-      </c>
       <c r="M44" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6797,7 +6793,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6809,24 +6805,24 @@
         <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>334</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6846,16 +6842,16 @@
         <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6906,7 +6902,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -6918,13 +6914,13 @@
         <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>80</v>
@@ -6935,7 +6931,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6946,7 +6942,7 @@
         <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>80</v>
@@ -6958,13 +6954,13 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7015,13 +7011,13 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>80</v>
@@ -7033,7 +7029,7 @@
         <v>80</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>80</v>
@@ -7044,11 +7040,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7067,16 +7063,16 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L47" t="s" s="2">
-        <v>182</v>
-      </c>
       <c r="M47" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7126,7 +7122,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7138,13 +7134,13 @@
         <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>80</v>
@@ -7155,11 +7151,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7172,25 +7168,25 @@
         <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="M48" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>80</v>
@@ -7239,7 +7235,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7251,13 +7247,13 @@
         <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>80</v>
@@ -7268,39 +7264,39 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F49" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J49" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7350,36 +7346,36 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>354</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7390,7 +7386,7 @@
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>80</v>
@@ -7402,13 +7398,13 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7435,14 +7431,14 @@
         <v>80</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>359</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>80</v>
       </c>
@@ -7459,25 +7455,25 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>80</v>
@@ -7488,7 +7484,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7499,7 +7495,7 @@
         <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>80</v>
@@ -7511,13 +7507,13 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7568,25 +7564,25 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
@@ -7597,7 +7593,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7620,16 +7616,16 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7679,7 +7675,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7691,13 +7687,13 @@
         <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>80</v>
@@ -7708,7 +7704,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7719,7 +7715,7 @@
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>80</v>
@@ -7731,16 +7727,16 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7790,25 +7786,25 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>80</v>
@@ -7819,7 +7815,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7830,7 +7826,7 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>80</v>
@@ -7842,13 +7838,13 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7899,13 +7895,13 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>80</v>
@@ -7917,7 +7913,7 @@
         <v>80</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>80</v>
@@ -7928,11 +7924,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7951,16 +7947,16 @@
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>182</v>
-      </c>
       <c r="M55" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8010,7 +8006,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8022,13 +8018,13 @@
         <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
@@ -8039,11 +8035,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8056,25 +8052,25 @@
         <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L56" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="M56" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>80</v>
@@ -8123,7 +8119,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8135,13 +8131,13 @@
         <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>80</v>
@@ -8152,7 +8148,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8163,7 +8159,7 @@
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>80</v>
@@ -8175,13 +8171,13 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8232,36 +8228,36 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8272,7 +8268,7 @@
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>80</v>
@@ -8284,16 +8280,16 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8343,25 +8339,25 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>80</v>
@@ -8372,7 +8368,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8383,7 +8379,7 @@
         <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>80</v>
@@ -8395,16 +8391,16 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8430,60 +8426,60 @@
         <v>80</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="Y59" t="s" s="2">
+      <c r="Z59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK59" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK59" t="s" s="2">
+      <c r="AL59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>396</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8494,7 +8490,7 @@
         <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>80</v>
@@ -8506,16 +8502,16 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>399</v>
-      </c>
       <c r="M60" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8541,60 +8537,60 @@
         <v>80</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="Y60" t="s" s="2">
+      <c r="Z60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>402</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8617,19 +8613,19 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>80</v>
@@ -8654,14 +8650,14 @@
         <v>80</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="Y61" t="s" s="2">
-        <v>409</v>
-      </c>
       <c r="Z61" t="s" s="2">
         <v>80</v>
       </c>
@@ -8678,7 +8674,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8690,24 +8686,24 @@
         <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>411</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8730,16 +8726,16 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L62" t="s" s="2">
-        <v>414</v>
-      </c>
       <c r="M62" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8765,14 +8761,14 @@
         <v>80</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X62" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="Y62" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="Y62" t="s" s="2">
-        <v>416</v>
-      </c>
       <c r="Z62" t="s" s="2">
         <v>80</v>
       </c>
@@ -8789,7 +8785,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -8801,24 +8797,24 @@
         <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>418</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8841,16 +8837,16 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>421</v>
-      </c>
       <c r="M63" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8876,14 +8872,14 @@
         <v>80</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="Y63" t="s" s="2">
-        <v>423</v>
-      </c>
       <c r="Z63" t="s" s="2">
         <v>80</v>
       </c>
@@ -8900,7 +8896,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -8912,24 +8908,24 @@
         <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>425</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8940,7 +8936,7 @@
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>80</v>
@@ -8952,16 +8948,16 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="L64" t="s" s="2">
-        <v>428</v>
-      </c>
       <c r="M64" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9011,36 +9007,36 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>430</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9051,7 +9047,7 @@
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>80</v>
@@ -9063,16 +9059,16 @@
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="L65" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="M65" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9098,60 +9094,60 @@
         <v>80</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="Y65" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="Y65" t="s" s="2">
+      <c r="Z65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK65" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="Z65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK65" t="s" s="2">
+      <c r="AL65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>437</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9174,16 +9170,16 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9233,7 +9229,7 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9245,13 +9241,13 @@
         <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>80</v>
@@ -9262,7 +9258,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9273,7 +9269,7 @@
         <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>80</v>
@@ -9285,13 +9281,13 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9342,13 +9338,13 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>80</v>
@@ -9360,7 +9356,7 @@
         <v>80</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>80</v>
@@ -9371,11 +9367,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9394,16 +9390,16 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L68" t="s" s="2">
-        <v>182</v>
-      </c>
       <c r="M68" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9453,7 +9449,7 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9465,13 +9461,13 @@
         <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>80</v>
@@ -9482,11 +9478,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9499,25 +9495,25 @@
         <v>80</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="M69" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>80</v>
@@ -9566,7 +9562,7 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -9578,13 +9574,13 @@
         <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>80</v>
@@ -9595,7 +9591,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9603,10 +9599,10 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>80</v>
@@ -9618,16 +9614,16 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L70" t="s" s="2">
-        <v>449</v>
-      </c>
       <c r="M70" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9677,36 +9673,36 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ70" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AK70" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AL70" t="s" s="2">
+      <c r="AM70" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>452</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9717,7 +9713,7 @@
         <v>78</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>80</v>
@@ -9729,16 +9725,16 @@
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9764,49 +9760,49 @@
         <v>80</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="Y71" t="s" s="2">
+      <c r="Z71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>80</v>
@@ -9817,7 +9813,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9828,7 +9824,7 @@
         <v>78</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>80</v>
@@ -9840,16 +9836,16 @@
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9875,14 +9871,14 @@
         <v>80</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X72" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="Y72" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="Y72" t="s" s="2">
-        <v>465</v>
-      </c>
       <c r="Z72" t="s" s="2">
         <v>80</v>
       </c>
@@ -9899,19 +9895,19 @@
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>80</v>
@@ -9928,7 +9924,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9939,7 +9935,7 @@
         <v>78</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>80</v>
@@ -9951,16 +9947,16 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10010,25 +10006,25 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>80</v>
@@ -10039,7 +10035,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10050,7 +10046,7 @@
         <v>78</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>80</v>
@@ -10062,16 +10058,16 @@
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="L74" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="M74" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10121,36 +10117,36 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AK74" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>475</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10161,7 +10157,7 @@
         <v>78</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>80</v>
@@ -10173,16 +10169,16 @@
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10232,25 +10228,25 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ75" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AK75" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>80</v>
